--- a/contratos/contratos-7-2018.xlsx
+++ b/contratos/contratos-7-2018.xlsx
@@ -895,7 +895,7 @@
     <t>VALDUNCIEL RODOLFO RENE</t>
   </si>
   <si>
-    <t>BOFFELLI, MARIA INES</t>
+    <t>BOFFELLI. MARIA INES</t>
   </si>
   <si>
     <t>BOUJON HECTOR ORLANDO</t>
@@ -934,7 +934,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -946,7 +946,7 @@
     <t>CONSORCIO EDIFICIO DEL SISTEMA DE PREVISION SOCIAL PARA MEDICOS Y BIOQUIMICOS DE E. RIOS.</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>SYLVESTRE CARLOS OMAR</t>
@@ -955,7 +955,7 @@
     <t>BLANC ELSA MABEL</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -976,7 +976,7 @@
     <t>COBRE OSCAR CESAR</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
+    <t>DODERA. JORGE ABELARDO</t>
   </si>
   <si>
     <t>FERREYRA EDUARDO FEDERICO</t>
@@ -1066,7 +1066,7 @@
     <t>SCEVOLA FABIAN RICARDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>ROUSSEAUX MARTIN ANDRES</t>
@@ -1588,619 +1588,619 @@
     <t>11</t>
   </si>
   <si>
-    <t>16.870,00</t>
-  </si>
-  <si>
-    <t>8.600,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>70.900,00</t>
-  </si>
-  <si>
-    <t>45.815,00</t>
-  </si>
-  <si>
-    <t>1.296.000,00</t>
-  </si>
-  <si>
-    <t>648.000,00</t>
-  </si>
-  <si>
-    <t>1.940.000,00</t>
-  </si>
-  <si>
-    <t>2.137,50</t>
-  </si>
-  <si>
-    <t>955,00</t>
-  </si>
-  <si>
-    <t>342.316,50</t>
-  </si>
-  <si>
-    <t>539.968,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>63.930,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>891.376,41</t>
-  </si>
-  <si>
-    <t>57.780,00</t>
-  </si>
-  <si>
-    <t>4.170,00</t>
-  </si>
-  <si>
-    <t>399,00</t>
-  </si>
-  <si>
-    <t>394.541,94</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>12.797,60</t>
-  </si>
-  <si>
-    <t>73.272,60</t>
-  </si>
-  <si>
-    <t>12.120,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>1.076,30</t>
-  </si>
-  <si>
-    <t>53.142,17</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>14.653,41</t>
-  </si>
-  <si>
-    <t>24.100,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>10.015,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>690.000,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>27.935,04</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>7.212,89</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>143,00</t>
-  </si>
-  <si>
-    <t>2.871,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>10.836,50</t>
-  </si>
-  <si>
-    <t>2.890,00</t>
-  </si>
-  <si>
-    <t>168,20</t>
-  </si>
-  <si>
-    <t>2.083,48</t>
-  </si>
-  <si>
-    <t>691,98</t>
-  </si>
-  <si>
-    <t>7.695,00</t>
-  </si>
-  <si>
-    <t>2.960,00</t>
-  </si>
-  <si>
-    <t>97.656,00</t>
-  </si>
-  <si>
-    <t>21.343,00</t>
-  </si>
-  <si>
-    <t>61.819,93</t>
-  </si>
-  <si>
-    <t>23.738,42</t>
-  </si>
-  <si>
-    <t>305,90</t>
-  </si>
-  <si>
-    <t>174.911,40</t>
-  </si>
-  <si>
-    <t>38.910,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>1.195.200,00</t>
-  </si>
-  <si>
-    <t>73,00</t>
-  </si>
-  <si>
-    <t>1.710,00</t>
-  </si>
-  <si>
-    <t>7,36</t>
-  </si>
-  <si>
-    <t>164.326,42</t>
-  </si>
-  <si>
-    <t>964,10</t>
-  </si>
-  <si>
-    <t>885,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>1.377,00</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>8.877,00</t>
-  </si>
-  <si>
-    <t>15.598,20</t>
-  </si>
-  <si>
-    <t>4.960,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>12.334,90</t>
-  </si>
-  <si>
-    <t>14.765,00</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>10.392,00</t>
-  </si>
-  <si>
-    <t>13.100,00</t>
-  </si>
-  <si>
-    <t>417,40</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>162.500,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>26.500,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>22.500,00</t>
-  </si>
-  <si>
-    <t>23.200,00</t>
-  </si>
-  <si>
-    <t>10.300,00</t>
-  </si>
-  <si>
-    <t>4.550,00</t>
-  </si>
-  <si>
-    <t>355,00</t>
-  </si>
-  <si>
-    <t>17.928,00</t>
-  </si>
-  <si>
-    <t>19.800,00</t>
-  </si>
-  <si>
-    <t>3.748,00</t>
-  </si>
-  <si>
-    <t>94.671,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>4.129,00</t>
-  </si>
-  <si>
-    <t>13.917,00</t>
-  </si>
-  <si>
-    <t>49.203,81</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>7.300,00</t>
-  </si>
-  <si>
-    <t>146,00</t>
-  </si>
-  <si>
-    <t>47,28</t>
-  </si>
-  <si>
-    <t>15.099,38</t>
-  </si>
-  <si>
-    <t>6.147,50</t>
-  </si>
-  <si>
-    <t>64,80</t>
-  </si>
-  <si>
-    <t>6.553,00</t>
-  </si>
-  <si>
-    <t>1.460,00</t>
-  </si>
-  <si>
-    <t>3.608,54</t>
-  </si>
-  <si>
-    <t>945,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>4.720,00</t>
-  </si>
-  <si>
-    <t>681,40</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>775,00</t>
-  </si>
-  <si>
-    <t>125,00</t>
-  </si>
-  <si>
-    <t>40.250,00</t>
-  </si>
-  <si>
-    <t>2.732,07</t>
-  </si>
-  <si>
-    <t>20.215,00</t>
-  </si>
-  <si>
-    <t>11.220,00</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>181.500,00</t>
-  </si>
-  <si>
-    <t>324,00</t>
-  </si>
-  <si>
-    <t>10.750,00</t>
-  </si>
-  <si>
-    <t>76.617,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>183.840,00</t>
-  </si>
-  <si>
-    <t>50.420,00</t>
-  </si>
-  <si>
-    <t>47.500,00</t>
-  </si>
-  <si>
-    <t>22.550,00</t>
-  </si>
-  <si>
-    <t>238.937,50</t>
-  </si>
-  <si>
-    <t>191.824,00</t>
-  </si>
-  <si>
-    <t>51.400,00</t>
-  </si>
-  <si>
-    <t>649,52</t>
-  </si>
-  <si>
-    <t>4.983,00</t>
-  </si>
-  <si>
-    <t>586,10</t>
-  </si>
-  <si>
-    <t>11.369,86</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>14.263,00</t>
-  </si>
-  <si>
-    <t>87.526,56</t>
-  </si>
-  <si>
-    <t>19.440,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>19.570,00</t>
-  </si>
-  <si>
-    <t>5.180,00</t>
-  </si>
-  <si>
-    <t>14.312,00</t>
-  </si>
-  <si>
-    <t>12.993,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>25.350,00</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>8.767,25</t>
-  </si>
-  <si>
-    <t>31,40</t>
-  </si>
-  <si>
-    <t>1.327,00</t>
-  </si>
-  <si>
-    <t>5.251,40</t>
-  </si>
-  <si>
-    <t>5.960,84</t>
-  </si>
-  <si>
-    <t>5.076,84</t>
-  </si>
-  <si>
-    <t>1.937,00</t>
-  </si>
-  <si>
-    <t>9.070,00</t>
-  </si>
-  <si>
-    <t>7.460,00</t>
-  </si>
-  <si>
-    <t>7.220,00</t>
-  </si>
-  <si>
-    <t>25.705,38</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>1.344,00</t>
-  </si>
-  <si>
-    <t>14.850,89</t>
-  </si>
-  <si>
-    <t>356,01</t>
-  </si>
-  <si>
-    <t>6.067,46</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>90.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>120.000,00</t>
-  </si>
-  <si>
-    <t>1.139,29</t>
-  </si>
-  <si>
-    <t>12.976,00</t>
-  </si>
-  <si>
-    <t>150.500,00</t>
-  </si>
-  <si>
-    <t>6.262.009,91</t>
-  </si>
-  <si>
-    <t>310.000,00</t>
-  </si>
-  <si>
-    <t>301.000,00</t>
-  </si>
-  <si>
-    <t>420.000,00</t>
-  </si>
-  <si>
-    <t>527.950,00</t>
-  </si>
-  <si>
-    <t>394.500,00</t>
-  </si>
-  <si>
-    <t>351.922,00</t>
-  </si>
-  <si>
-    <t>507.500,00</t>
-  </si>
-  <si>
-    <t>269.500,00</t>
-  </si>
-  <si>
-    <t>278.000,00</t>
-  </si>
-  <si>
-    <t>305.750,00</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>50.848,47</t>
-  </si>
-  <si>
-    <t>57.350,00</t>
-  </si>
-  <si>
-    <t>7.992.726,12</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>28.500,00</t>
-  </si>
-  <si>
-    <t>7.650,00</t>
-  </si>
-  <si>
-    <t>165.138,00</t>
-  </si>
-  <si>
-    <t>4.694.000,00</t>
-  </si>
-  <si>
-    <t>42.149,00</t>
+    <t>16870.00</t>
+  </si>
+  <si>
+    <t>8600.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>70900.00</t>
+  </si>
+  <si>
+    <t>45815.00</t>
+  </si>
+  <si>
+    <t>1296000.00</t>
+  </si>
+  <si>
+    <t>648000.00</t>
+  </si>
+  <si>
+    <t>1940000.00</t>
+  </si>
+  <si>
+    <t>2137.50</t>
+  </si>
+  <si>
+    <t>955.00</t>
+  </si>
+  <si>
+    <t>342316.50</t>
+  </si>
+  <si>
+    <t>539968.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>63930.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>891376.41</t>
+  </si>
+  <si>
+    <t>57780.00</t>
+  </si>
+  <si>
+    <t>4170.00</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>394541.94</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>12797.60</t>
+  </si>
+  <si>
+    <t>73272.60</t>
+  </si>
+  <si>
+    <t>12120.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>1076.30</t>
+  </si>
+  <si>
+    <t>53142.17</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>14653.41</t>
+  </si>
+  <si>
+    <t>24100.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>10015.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>690000.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>27935.04</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>7212.89</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>2871.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>10836.50</t>
+  </si>
+  <si>
+    <t>2890.00</t>
+  </si>
+  <si>
+    <t>168.20</t>
+  </si>
+  <si>
+    <t>2083.48</t>
+  </si>
+  <si>
+    <t>691.98</t>
+  </si>
+  <si>
+    <t>7695.00</t>
+  </si>
+  <si>
+    <t>2960.00</t>
+  </si>
+  <si>
+    <t>97656.00</t>
+  </si>
+  <si>
+    <t>21343.00</t>
+  </si>
+  <si>
+    <t>61819.93</t>
+  </si>
+  <si>
+    <t>23738.42</t>
+  </si>
+  <si>
+    <t>305.90</t>
+  </si>
+  <si>
+    <t>174911.40</t>
+  </si>
+  <si>
+    <t>38910.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>1195200.00</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>1710.00</t>
+  </si>
+  <si>
+    <t>7.36</t>
+  </si>
+  <si>
+    <t>164326.42</t>
+  </si>
+  <si>
+    <t>964.10</t>
+  </si>
+  <si>
+    <t>885.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>1377.00</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>8877.00</t>
+  </si>
+  <si>
+    <t>15598.20</t>
+  </si>
+  <si>
+    <t>4960.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>12334.90</t>
+  </si>
+  <si>
+    <t>14765.00</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>10392.00</t>
+  </si>
+  <si>
+    <t>13100.00</t>
+  </si>
+  <si>
+    <t>417.40</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>162500.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>26500.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>22500.00</t>
+  </si>
+  <si>
+    <t>23200.00</t>
+  </si>
+  <si>
+    <t>10300.00</t>
+  </si>
+  <si>
+    <t>4550.00</t>
+  </si>
+  <si>
+    <t>355.00</t>
+  </si>
+  <si>
+    <t>17928.00</t>
+  </si>
+  <si>
+    <t>19800.00</t>
+  </si>
+  <si>
+    <t>3748.00</t>
+  </si>
+  <si>
+    <t>94671.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>4129.00</t>
+  </si>
+  <si>
+    <t>13917.00</t>
+  </si>
+  <si>
+    <t>49203.81</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>7300.00</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>47.28</t>
+  </si>
+  <si>
+    <t>15099.38</t>
+  </si>
+  <si>
+    <t>6147.50</t>
+  </si>
+  <si>
+    <t>64.80</t>
+  </si>
+  <si>
+    <t>6553.00</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>3608.54</t>
+  </si>
+  <si>
+    <t>945.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>4720.00</t>
+  </si>
+  <si>
+    <t>681.40</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>775.00</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>40250.00</t>
+  </si>
+  <si>
+    <t>2732.07</t>
+  </si>
+  <si>
+    <t>20215.00</t>
+  </si>
+  <si>
+    <t>11220.00</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>181500.00</t>
+  </si>
+  <si>
+    <t>324.00</t>
+  </si>
+  <si>
+    <t>10750.00</t>
+  </si>
+  <si>
+    <t>76617.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>183840.00</t>
+  </si>
+  <si>
+    <t>50420.00</t>
+  </si>
+  <si>
+    <t>47500.00</t>
+  </si>
+  <si>
+    <t>22550.00</t>
+  </si>
+  <si>
+    <t>238937.50</t>
+  </si>
+  <si>
+    <t>191824.00</t>
+  </si>
+  <si>
+    <t>51400.00</t>
+  </si>
+  <si>
+    <t>649.52</t>
+  </si>
+  <si>
+    <t>4983.00</t>
+  </si>
+  <si>
+    <t>586.10</t>
+  </si>
+  <si>
+    <t>11369.86</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>14263.00</t>
+  </si>
+  <si>
+    <t>87526.56</t>
+  </si>
+  <si>
+    <t>19440.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>19570.00</t>
+  </si>
+  <si>
+    <t>5180.00</t>
+  </si>
+  <si>
+    <t>14312.00</t>
+  </si>
+  <si>
+    <t>12993.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>25350.00</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>8767.25</t>
+  </si>
+  <si>
+    <t>31.40</t>
+  </si>
+  <si>
+    <t>1327.00</t>
+  </si>
+  <si>
+    <t>5251.40</t>
+  </si>
+  <si>
+    <t>5960.84</t>
+  </si>
+  <si>
+    <t>5076.84</t>
+  </si>
+  <si>
+    <t>1937.00</t>
+  </si>
+  <si>
+    <t>9070.00</t>
+  </si>
+  <si>
+    <t>7460.00</t>
+  </si>
+  <si>
+    <t>7220.00</t>
+  </si>
+  <si>
+    <t>25705.38</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>1344.00</t>
+  </si>
+  <si>
+    <t>14850.89</t>
+  </si>
+  <si>
+    <t>356.01</t>
+  </si>
+  <si>
+    <t>6067.46</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>90000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>120000.00</t>
+  </si>
+  <si>
+    <t>1139.29</t>
+  </si>
+  <si>
+    <t>12976.00</t>
+  </si>
+  <si>
+    <t>150500.00</t>
+  </si>
+  <si>
+    <t>6262009.91</t>
+  </si>
+  <si>
+    <t>310000.00</t>
+  </si>
+  <si>
+    <t>301000.00</t>
+  </si>
+  <si>
+    <t>420000.00</t>
+  </si>
+  <si>
+    <t>527950.00</t>
+  </si>
+  <si>
+    <t>394500.00</t>
+  </si>
+  <si>
+    <t>351922.00</t>
+  </si>
+  <si>
+    <t>507500.00</t>
+  </si>
+  <si>
+    <t>269500.00</t>
+  </si>
+  <si>
+    <t>278000.00</t>
+  </si>
+  <si>
+    <t>305750.00</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>50848.47</t>
+  </si>
+  <si>
+    <t>57350.00</t>
+  </si>
+  <si>
+    <t>7992726.12</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>28500.00</t>
+  </si>
+  <si>
+    <t>7650.00</t>
+  </si>
+  <si>
+    <t>165138.00</t>
+  </si>
+  <si>
+    <t>4694000.00</t>
+  </si>
+  <si>
+    <t>42149.00</t>
   </si>
 </sst>
 </file>
